--- a/results/time_series_results/res_trafo/q_hv_mvar.xlsx
+++ b/results/time_series_results/res_trafo/q_hv_mvar.xlsx
@@ -382,7 +382,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.002391030004748496</v>
+        <v>0.01240070126096637</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -390,7 +390,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.002127131654858339</v>
+        <v>0.01396477462205747</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -398,7 +398,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.001322617120782299</v>
+        <v>0.01115029796583555</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -406,7 +406,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.000929565415274336</v>
+        <v>0.00885028692320855</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -414,7 +414,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0005587197045400227</v>
+        <v>0.006694953616755983</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -422,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0005124623043666343</v>
+        <v>0.006086182205423007</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -430,7 +430,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0004148263780217043</v>
+        <v>0.006044127811998035</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -438,7 +438,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0003497024545702221</v>
+        <v>0.005255825521864432</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -446,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0004517813227669087</v>
+        <v>0.007953947300402442</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -454,7 +454,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.0004568201953236706</v>
+        <v>0.00904850761006748</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -462,7 +462,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.0007173541171814346</v>
+        <v>0.01020278104956174</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -470,7 +470,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.0009528430876448724</v>
+        <v>0.01171564485353316</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -478,7 +478,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.001428413225609049</v>
+        <v>0.0114394795337589</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -486,7 +486,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.001746206712152976</v>
+        <v>0.01331176364026621</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -494,7 +494,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.00177649288710402</v>
+        <v>0.01383098086527612</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -502,7 +502,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.001913535027354918</v>
+        <v>0.01428255959734082</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -510,7 +510,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.002136253675168343</v>
+        <v>0.01563462426147377</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -518,7 +518,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.002153322703955851</v>
+        <v>0.01434635253150707</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -526,7 +526,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.001614556958942082</v>
+        <v>0.01261076287015728</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -534,7 +534,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.001048868433690009</v>
+        <v>0.01080543425098113</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -542,7 +542,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.0007728180809842833</v>
+        <v>0.009738284760801852</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -550,7 +550,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.001342189141080752</v>
+        <v>0.01216241654458283</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -558,7 +558,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.001853059867123363</v>
+        <v>0.01100818233205025</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -566,7 +566,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.002207241979031549</v>
+        <v>0.01145678593621935</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -574,7 +574,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.0014140337103552</v>
+        <v>0.01154343445813444</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -582,7 +582,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.001046447092176939</v>
+        <v>0.01141791887593979</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -590,7 +590,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.001022430448531786</v>
+        <v>0.01126616039032902</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -598,7 +598,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.0006623916197980861</v>
+        <v>0.007945849676892491</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -606,7 +606,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.0003345261425957702</v>
+        <v>0.006295218374037237</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -614,7 +614,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.0003273455987746754</v>
+        <v>0.005753536377617552</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -622,7 +622,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.0002602745471029788</v>
+        <v>0.005355940793610126</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -630,7 +630,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.0002745595597750672</v>
+        <v>0.00565605601396002</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -638,7 +638,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.0003797435617551859</v>
+        <v>0.007153711390576412</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -646,7 +646,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.0003500998335634886</v>
+        <v>0.008289701268091365</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -654,7 +654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.000731914952731394</v>
+        <v>0.01121441672641921</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -662,7 +662,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.0009900018241923991</v>
+        <v>0.01182153218251503</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -670,7 +670,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.001256348013867203</v>
+        <v>0.01203498197829522</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -678,7 +678,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.001127564583841334</v>
+        <v>0.01032545778452487</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -686,7 +686,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.001314219466261202</v>
+        <v>0.0110653905022764</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -694,7 +694,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.001663272604145005</v>
+        <v>0.01175528054349884</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -702,7 +702,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.002352130308521883</v>
+        <v>0.01207447123683547</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -710,7 +710,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.002260752045093239</v>
+        <v>0.01506507687391467</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -718,7 +718,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.001839468176831671</v>
+        <v>0.01265499089291122</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -726,7 +726,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.001411208785552009</v>
+        <v>0.01052040661248332</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -734,7 +734,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.001737287101301277</v>
+        <v>0.01048565360142639</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -742,7 +742,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.001281872173086951</v>
+        <v>0.009892559099664355</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -750,7 +750,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.001613583674016095</v>
+        <v>0.01007090364873475</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -758,7 +758,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.001736216086562825</v>
+        <v>0.009592770532810269</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -766,7 +766,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.00102659388951043</v>
+        <v>0.009451948194320714</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -774,7 +774,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.00108402764478277</v>
+        <v>0.01051710952107587</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -782,7 +782,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.0009580635500656687</v>
+        <v>0.009248546086809251</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -790,7 +790,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.000813669037704523</v>
+        <v>0.008489170506873034</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -798,7 +798,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.0005759975886012736</v>
+        <v>0.006804625089763316</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -806,7 +806,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.0005228351105464046</v>
+        <v>0.006267873990110973</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -814,7 +814,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.0003619990037060372</v>
+        <v>0.005808989040013701</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -822,7 +822,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.0002836016465224134</v>
+        <v>0.005652687223454356</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -830,7 +830,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.000355176200357521</v>
+        <v>0.006962905905854244</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -838,7 +838,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.0003434788872467287</v>
+        <v>0.008183346792709045</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -846,7 +846,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.0009458332211480514</v>
+        <v>0.01119009799286785</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -854,7 +854,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.001101386679939198</v>
+        <v>0.01209547001000244</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -862,7 +862,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.001186554328466594</v>
+        <v>0.01113265718737888</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -870,7 +870,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.001011502352377569</v>
+        <v>0.01083064198557238</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -878,7 +878,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.00110107402997639</v>
+        <v>0.01197573569004784</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -886,7 +886,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.00129427882860722</v>
+        <v>0.01142488080161663</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -894,7 +894,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.002080480936608176</v>
+        <v>0.0141820708605509</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -902,7 +902,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.002199804585067966</v>
+        <v>0.01514636766966504</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -910,7 +910,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.001473567557405575</v>
+        <v>0.01295467158392882</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -918,7 +918,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.001252321449135341</v>
+        <v>0.01136303020175067</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -926,7 +926,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.0008429115164856338</v>
+        <v>0.009163522762100751</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -934,7 +934,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.0007092403525446045</v>
+        <v>0.008578694112749474</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -942,7 +942,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.0007512805313718562</v>
+        <v>0.008991668013983434</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -950,7 +950,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.001129221503181732</v>
+        <v>0.009928919733220187</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -958,7 +958,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.0008435040031584684</v>
+        <v>0.009129839559009145</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -966,7 +966,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.0007365622526647186</v>
+        <v>0.01100986668904769</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -974,7 +974,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.0007137506563850149</v>
+        <v>0.009194145664353615</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -982,7 +982,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.0005200224237578155</v>
+        <v>0.00701899346894086</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -990,7 +990,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.0004560643789834895</v>
+        <v>0.006092599372160556</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -998,7 +998,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.0004246990623288927</v>
+        <v>0.005520066543124091</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.0003643414546534718</v>
+        <v>0.005352208686179916</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.0004033851843658898</v>
+        <v>0.006948513162208902</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1022,7 +1022,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.0003820927231725779</v>
+        <v>0.007755256016620082</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1030,7 +1030,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.0003620104075738872</v>
+        <v>0.008503504897499514</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1038,7 +1038,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.0005745508008223599</v>
+        <v>0.01081705155693924</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.0006512592944634132</v>
+        <v>0.009705873414331379</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1054,7 +1054,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.0005454025831772569</v>
+        <v>0.008459258748795717</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.0004724838074021687</v>
+        <v>0.008146970174202961</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.000639412349132451</v>
+        <v>0.00868181056263384</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.00117213062348398</v>
+        <v>0.0105075845567435</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.001493643431576208</v>
+        <v>0.01162424488353686</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.001330400870228843</v>
+        <v>0.01196043585982753</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1102,7 +1102,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.0009525153132869946</v>
+        <v>0.009792127419355534</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.00101573282702061</v>
+        <v>0.01179546802019504</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.001265703114108119</v>
+        <v>0.01219287238349409</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.001570917450263609</v>
+        <v>0.01179851500189755</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.001580359597060932</v>
+        <v>0.01281752770736433</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.001602549326942482</v>
+        <v>0.01213452914660751</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.001829015613586282</v>
+        <v>0.01327366550274256</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.001351391158664894</v>
+        <v>0.01420506128253018</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.001190304398382969</v>
+        <v>0.0105192781223391</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.0007401492673431154</v>
+        <v>0.008974951759194605</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.0007162263597886298</v>
+        <v>0.008709880008136883</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1190,7 +1190,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.0005893976245401333</v>
+        <v>0.007535617111471993</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1198,7 +1198,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.000480377595039716</v>
+        <v>0.006649100090909243</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1206,7 +1206,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.0003459792953475205</v>
+        <v>0.006688315820172042</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1214,7 +1214,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.0004108609579500655</v>
+        <v>0.008104414978327812</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1222,7 +1222,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.000463409802780923</v>
+        <v>0.008651324488591516</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1230,7 +1230,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.0007153139309130641</v>
+        <v>0.01135458522204891</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1238,7 +1238,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.0006540883850476575</v>
+        <v>0.009390854457279607</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1246,7 +1246,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.0006966758413537999</v>
+        <v>0.009116447157872853</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1254,7 +1254,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.0005883530771570999</v>
+        <v>0.008751228108903275</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1262,7 +1262,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.00120220025945561</v>
+        <v>0.01112479906200892</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1270,7 +1270,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.001281558451620368</v>
+        <v>0.01179966106190733</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1278,7 +1278,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.001524265563621841</v>
+        <v>0.01308673007398697</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1286,7 +1286,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.001479033070193481</v>
+        <v>0.01218785919169485</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1294,7 +1294,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.00168937045490436</v>
+        <v>0.01353758881733635</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1302,7 +1302,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.002224665578384855</v>
+        <v>0.01495066094412567</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1310,7 +1310,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.002411553423375734</v>
+        <v>0.01456027374938151</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1318,7 +1318,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.002691895706009806</v>
+        <v>0.0151433468500799</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1326,7 +1326,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.002690055644450462</v>
+        <v>0.01411485833561765</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1334,7 +1334,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.002676620733261581</v>
+        <v>0.01356538492935799</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1342,7 +1342,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.001704581151051654</v>
+        <v>0.01293608692407999</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1350,7 +1350,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.001338450973239036</v>
+        <v>0.01254231309184961</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1358,7 +1358,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.001003526516432984</v>
+        <v>0.0104861189942862</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1366,7 +1366,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.0007507335240182211</v>
+        <v>0.008931400754278451</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1374,7 +1374,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.0006847881832858782</v>
+        <v>0.008462473310578256</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1382,7 +1382,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.0006036314459727521</v>
+        <v>0.008131091578061911</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1390,7 +1390,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.0004826565436106822</v>
+        <v>0.006521651972490883</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1398,7 +1398,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.0004148366831679962</v>
+        <v>0.007434961960555819</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1406,7 +1406,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.0004549170930474578</v>
+        <v>0.008580379872938693</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1414,7 +1414,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.0005053954500320312</v>
+        <v>0.009676285775662707</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1422,7 +1422,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.001044147980608257</v>
+        <v>0.01159020539962419</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1430,7 +1430,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.000909444248627933</v>
+        <v>0.01002690352247049</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1438,7 +1438,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.001695866967219128</v>
+        <v>0.01484926986832202</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1446,7 +1446,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.001597001751973304</v>
+        <v>0.01467905894986532</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1454,7 +1454,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.002038086158478114</v>
+        <v>0.01582469410474152</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1462,7 +1462,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.002475141617392485</v>
+        <v>0.01666099584678316</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1470,7 +1470,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.002879836607383002</v>
+        <v>0.01752455926335528</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1478,7 +1478,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.003289800277524346</v>
+        <v>0.0187109534506773</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1486,7 +1486,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.00198737241209046</v>
+        <v>0.01485696627019739</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1494,7 +1494,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.002088303798649882</v>
+        <v>0.0142996933884143</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1502,7 +1502,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.002382851932956509</v>
+        <v>0.01404710358048078</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1510,7 +1510,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.003451272376526093</v>
+        <v>0.01623373994650823</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1518,7 +1518,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.003384946266193456</v>
+        <v>0.01626993386707865</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1526,7 +1526,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.003381925175699685</v>
+        <v>0.01521855706171249</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1534,7 +1534,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.002725753347380122</v>
+        <v>0.0142916289367645</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1542,7 +1542,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.002006844171822841</v>
+        <v>0.0140254556774484</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1550,7 +1550,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.001588026274101928</v>
+        <v>0.01230770007085003</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1558,7 +1558,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.0007828117183932282</v>
+        <v>0.007569879425939563</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1566,7 +1566,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.000730463431338535</v>
+        <v>0.007815853654531857</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1574,7 +1574,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.0005135401177513987</v>
+        <v>0.006643758012683465</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1582,7 +1582,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.0004369328920628135</v>
+        <v>0.005736910660181449</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1590,7 +1590,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.0003579523928156636</v>
+        <v>0.005957760555503455</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1598,7 +1598,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.0004295274542926997</v>
+        <v>0.006706015037807767</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1606,7 +1606,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.000447842112863972</v>
+        <v>0.007933259166468698</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1614,7 +1614,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.0009371729034313159</v>
+        <v>0.01127796206298703</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1622,7 +1622,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.001245466302098208</v>
+        <v>0.01301394228162578</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1630,7 +1630,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.001336005481387126</v>
+        <v>0.01321699017925582</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1638,7 +1638,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.001311208449979562</v>
+        <v>0.01271181300117141</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1646,7 +1646,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.001434424208589302</v>
+        <v>0.01345070632573964</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1654,7 +1654,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.001467071949464938</v>
+        <v>0.01380943720440553</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1662,7 +1662,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.002211770177690475</v>
+        <v>0.0150947228598477</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1670,7 +1670,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.002214556521844546</v>
+        <v>0.01531127574693958</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1678,7 +1678,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.001542024039923984</v>
+        <v>0.01395906975146799</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1686,7 +1686,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.001554256140086974</v>
+        <v>0.0126719305109193</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1694,7 +1694,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.002089756192453995</v>
+        <v>0.0110286504988486</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1702,7 +1702,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.003010848108546904</v>
+        <v>0.0139396046795508</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1710,7 +1710,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.00277244733839721</v>
+        <v>0.01285415575658222</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1718,7 +1718,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.003003346102735227</v>
+        <v>0.01074920334730844</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1726,7 +1726,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.002405299169382591</v>
+        <v>0.01047101227075564</v>
       </c>
     </row>
   </sheetData>

--- a/results/time_series_results/res_trafo/q_hv_mvar.xlsx
+++ b/results/time_series_results/res_trafo/q_hv_mvar.xlsx
@@ -366,1367 +366,1613 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B170"/>
+  <dimension ref="A1:C146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.01240070126096637</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.0001892708674553489</v>
+      </c>
+      <c r="C2">
+        <v>0.002270098743577975</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01396477462205747</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>0.0001793843947446305</v>
+      </c>
+      <c r="C3">
+        <v>0.001619608306189235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.01115029796583555</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.0001780687239012479</v>
+      </c>
+      <c r="C4">
+        <v>0.001810727818967628</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.00885028692320855</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>0.0001633554998301534</v>
+      </c>
+      <c r="C5">
+        <v>0.002177105099097965</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.006694953616755983</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.0001798383555984273</v>
+      </c>
+      <c r="C6">
+        <v>0.001550900238542319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.006086182205423007</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.0001591689210380665</v>
+      </c>
+      <c r="C7">
+        <v>0.001549265603009609</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.006044127811998035</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.0001756917329025498</v>
+      </c>
+      <c r="C8">
+        <v>0.00158137075165854</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.005255825521864432</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.0001701004247927074</v>
+      </c>
+      <c r="C9">
+        <v>0.001358529329489322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.007953947300402442</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.0002927200148246101</v>
+      </c>
+      <c r="C10">
+        <v>0.0007031093852187809</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.00904850761006748</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.0003680089950384158</v>
+      </c>
+      <c r="C11">
+        <v>0.001184625203864975</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.01020278104956174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.000378109320319453</v>
+      </c>
+      <c r="C12">
+        <v>0.001741647440529626</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.01171564485353316</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.0003468700979158967</v>
+      </c>
+      <c r="C13">
+        <v>0.002211519520082028</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.0114394795337589</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.000594032607809325</v>
+      </c>
+      <c r="C14">
+        <v>0.002103063782843861</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.01331176364026621</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.001433665886040991</v>
+      </c>
+      <c r="C15">
+        <v>0.001643852007457092</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.01383098086527612</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.001400826875155303</v>
+      </c>
+      <c r="C16">
+        <v>0.002077771463727451</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.01428255959734082</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>0.001460979826713782</v>
+      </c>
+      <c r="C17">
+        <v>0.002147576797935535</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.01563462426147377</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>0.001290945539746069</v>
+      </c>
+      <c r="C18">
+        <v>0.002259678606018056</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.01434635253150707</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>0.0009254750566425329</v>
+      </c>
+      <c r="C19">
+        <v>0.001888841100408101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.01261076287015728</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.0006672284586510813</v>
+      </c>
+      <c r="C20">
+        <v>0.002105754720756359</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.01080543425098113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.0004692770555188019</v>
+      </c>
+      <c r="C21">
+        <v>0.001785338730597275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.009738284760801852</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.0004638022103167216</v>
+      </c>
+      <c r="C22">
+        <v>0.001908904820905555</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.01216241654458283</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.0004533910061672586</v>
+      </c>
+      <c r="C23">
+        <v>0.004781803161518994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.01100818233205025</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.0002595248164087849</v>
+      </c>
+      <c r="C24">
+        <v>0.004118335802760775</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.01145678593621935</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.0001674291135866923</v>
+      </c>
+      <c r="C25">
+        <v>0.003283950345249309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.01154343445813444</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.0001886806252837658</v>
+      </c>
+      <c r="C26">
+        <v>0.002850820849947588</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.01141791887593979</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>0.0001842600613723988</v>
+      </c>
+      <c r="C27">
+        <v>0.002029560212707615</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.01126616039032902</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0001788736096504095</v>
+      </c>
+      <c r="C28">
+        <v>0.002137968498391984</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.007945849676892491</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.0001764115635758401</v>
+      </c>
+      <c r="C29">
+        <v>0.001804712951338772</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.006295218374037237</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.0001781184696021398</v>
+      </c>
+      <c r="C30">
+        <v>0.001679795607930856</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.005753536377617552</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.0001657787744964168</v>
+      </c>
+      <c r="C31">
+        <v>0.001769867078733611</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.005355940793610126</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.0001937609392630435</v>
+      </c>
+      <c r="C32">
+        <v>0.001558537326499021</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.00565605601396002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.0001879278784162608</v>
+      </c>
+      <c r="C33">
+        <v>0.001476212187884407</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.007153711390576412</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.0003205437042854697</v>
+      </c>
+      <c r="C34">
+        <v>0.0007911987919104746</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.008289701268091365</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.0004446684823262714</v>
+      </c>
+      <c r="C35">
+        <v>0.000916680032864825</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.01121441672641921</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.0004271913240119218</v>
+      </c>
+      <c r="C36">
+        <v>0.001293038475535191</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.01182153218251503</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>0.0004007169072322014</v>
+      </c>
+      <c r="C37">
+        <v>0.001531505021177715</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.01203498197829522</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.0005859702484753981</v>
+      </c>
+      <c r="C38">
+        <v>0.001091651498736468</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.01032545778452487</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001242609048059506</v>
+      </c>
+      <c r="C39">
+        <v>0.0006720119961896032</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.0110653905022764</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.001616537195817003</v>
+      </c>
+      <c r="C40">
+        <v>0.001948652841921472</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.01175528054349884</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.001297536059588822</v>
+      </c>
+      <c r="C41">
+        <v>0.002354196329043212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.01207447123683547</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>0.001328944785164765</v>
+      </c>
+      <c r="C42">
+        <v>0.002159838645921397</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.01506507687391467</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.0008431380814517553</v>
+      </c>
+      <c r="C43">
+        <v>0.002639995842245391</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.01265499089291122</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.0005618985159800971</v>
+      </c>
+      <c r="C44">
+        <v>0.004034414778240958</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.01052040661248332</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>0.0004763855699296826</v>
+      </c>
+      <c r="C45">
+        <v>0.002349607702904599</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.01048565360142639</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.0004784311708601052</v>
+      </c>
+      <c r="C46">
+        <v>0.003907502173929878</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.009892559099664355</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.0004835641605360763</v>
+      </c>
+      <c r="C47">
+        <v>0.005383580472997807</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.01007090364873475</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.0002380494697602487</v>
+      </c>
+      <c r="C48">
+        <v>0.0053137893404962</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.009592770532810269</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.0001712169877245984</v>
+      </c>
+      <c r="C49">
+        <v>0.004402666959425261</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.009451948194320714</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.0001908492136628581</v>
+      </c>
+      <c r="C50">
+        <v>0.002392082867628709</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.01051710952107587</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.0001899742852291553</v>
+      </c>
+      <c r="C51">
+        <v>0.002187575622428106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.009248546086809251</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>0.0002016377444906681</v>
+      </c>
+      <c r="C52">
+        <v>0.002837825691500484</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.008489170506873034</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.000171953487877019</v>
+      </c>
+      <c r="C53">
+        <v>0.002850774981187243</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.006804625089763316</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.0001764143659448436</v>
+      </c>
+      <c r="C54">
+        <v>0.001981061212465107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.006267873990110973</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.0001675378741241573</v>
+      </c>
+      <c r="C55">
+        <v>0.001915841301060262</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.005808989040013701</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.0001768597865696719</v>
+      </c>
+      <c r="C56">
+        <v>0.001929359024859245</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.005652687223454356</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>0.0001667939469447433</v>
+      </c>
+      <c r="C57">
+        <v>0.001254459484778536</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.006962905905854244</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.0002201730814928027</v>
+      </c>
+      <c r="C58">
+        <v>0.0009067829407696237</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.008183346792709045</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.0003569262291822639</v>
+      </c>
+      <c r="C59">
+        <v>0.001265133572156074</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.01119009799286785</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.0004284518519170888</v>
+      </c>
+      <c r="C60">
+        <v>0.001016457956933614</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.01209547001000244</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.0005048625076673474</v>
+      </c>
+      <c r="C61">
+        <v>0.001512478663123318</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.01113265718737888</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.000855957762476045</v>
+      </c>
+      <c r="C62">
+        <v>0.001499347205768942</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.01083064198557238</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.001064576334090184</v>
+      </c>
+      <c r="C63">
+        <v>0.0009123666986878831</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.01197573569004784</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.001608482541347378</v>
+      </c>
+      <c r="C64">
+        <v>0.001462370345179487</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.01142488080161663</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.001395394786330328</v>
+      </c>
+      <c r="C65">
+        <v>0.00287189494334239</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.0141820708605509</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.001248020863219956</v>
+      </c>
+      <c r="C66">
+        <v>0.002306526906163064</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.01514636766966504</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.0007240988444632279</v>
+      </c>
+      <c r="C67">
+        <v>0.002805035117033228</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.01295467158392882</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.0004819193531506727</v>
+      </c>
+      <c r="C68">
+        <v>0.005443974179701883</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.01136303020175067</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.0004648694926077113</v>
+      </c>
+      <c r="C69">
+        <v>0.005499517985055213</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.009163522762100751</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.0004195320655888679</v>
+      </c>
+      <c r="C70">
+        <v>0.006523143540865917</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.008578694112749474</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.0004422811905619994</v>
+      </c>
+      <c r="C71">
+        <v>0.008796123771061204</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.008991668013983434</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.0002725467159496731</v>
+      </c>
+      <c r="C72">
+        <v>0.00585879023833602</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.009928919733220187</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.0001694981218376412</v>
+      </c>
+      <c r="C73">
+        <v>0.004573548835475449</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.009129839559009145</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.0001810194738336435</v>
+      </c>
+      <c r="C74">
+        <v>0.002633527954306381</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.01100986668904769</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.0001880515063161781</v>
+      </c>
+      <c r="C75">
+        <v>0.001953417205447394</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.009194145664353615</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.0001848562717334801</v>
+      </c>
+      <c r="C76">
+        <v>0.002193358300640824</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.00701899346894086</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.000176004876298208</v>
+      </c>
+      <c r="C77">
+        <v>0.002608758217494511</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.006092599372160556</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.0001785534132006106</v>
+      </c>
+      <c r="C78">
+        <v>0.001712493502801671</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.005520066543124091</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.0001519747728098153</v>
+      </c>
+      <c r="C79">
+        <v>0.001712724529593146</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.005352208686179916</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.0001661182406449413</v>
+      </c>
+      <c r="C80">
+        <v>0.001573484096985212</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.006948513162208902</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.0001561574650468245</v>
+      </c>
+      <c r="C81">
+        <v>0.00135920006965673</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.007755256016620082</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.0004120696224960696</v>
+      </c>
+      <c r="C82">
+        <v>0.0007941432570914841</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.008503504897499514</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.0004944379269318233</v>
+      </c>
+      <c r="C83">
+        <v>0.001380132609506646</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.01081705155693924</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.0004720381196090528</v>
+      </c>
+      <c r="C84">
+        <v>0.001084530689698937</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.009705873414331379</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.0005929849757642103</v>
+      </c>
+      <c r="C85">
+        <v>0.001760519367604907</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.008459258748795717</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.0008177788211325421</v>
+      </c>
+      <c r="C86">
+        <v>0.002392375580815731</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.008146970174202961</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.001630134527189853</v>
+      </c>
+      <c r="C87">
+        <v>0.002870590444268295</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.00868181056263384</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.001400977444359519</v>
+      </c>
+      <c r="C88">
+        <v>0.003185863673937916</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.0105075845567435</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001251580747869241</v>
+      </c>
+      <c r="C89">
+        <v>0.00253286378843498</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.01162424488353686</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.001282307064221833</v>
+      </c>
+      <c r="C90">
+        <v>0.001854311748266113</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.01196043585982753</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.0009967208139114447</v>
+      </c>
+      <c r="C91">
+        <v>0.002061046847195769</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.009792127419355534</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0006885517272881003</v>
+      </c>
+      <c r="C92">
+        <v>0.003318488431380828</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.01179546802019504</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.0005664821455813041</v>
+      </c>
+      <c r="C93">
+        <v>0.004003760608512152</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.01219287238349409</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.0006143382945706932</v>
+      </c>
+      <c r="C94">
+        <v>0.005046178549854119</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.01179851500189755</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.0005156895680205054</v>
+      </c>
+      <c r="C95">
+        <v>0.005410862226235658</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.01281752770736433</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>0.0005568498981016745</v>
+      </c>
+      <c r="C96">
+        <v>0.004456858686348042</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.01213452914660751</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.0006894817408529264</v>
+      </c>
+      <c r="C97">
+        <v>0.003519376615559011</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.01327366550274256</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.000531246298556276</v>
+      </c>
+      <c r="C98">
+        <v>0.002293674865366135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.01420506128253018</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.0004264064938110934</v>
+      </c>
+      <c r="C99">
+        <v>0.00222262857191069</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.0105192781223391</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>0.0002552923666634399</v>
+      </c>
+      <c r="C100">
+        <v>0.002142897741903127</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.008974951759194605</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.0001790406715427295</v>
+      </c>
+      <c r="C101">
+        <v>0.002335594780506156</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.008709880008136883</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+        <v>0.0001795758768494693</v>
+      </c>
+      <c r="C102">
+        <v>0.001946352997474143</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.007535617111471993</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
+        <v>0.0001663828622753272</v>
+      </c>
+      <c r="C103">
+        <v>0.001900663156631843</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.006649100090909243</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+        <v>0.000166081384671557</v>
+      </c>
+      <c r="C104">
+        <v>0.001623929464276586</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.006688315820172042</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <v>0.000159881011978058</v>
+      </c>
+      <c r="C105">
+        <v>0.001285638405643219</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.008104414978327812</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+        <v>0.0002645454371057454</v>
+      </c>
+      <c r="C106">
+        <v>0.0009177323070215238</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.008651324488591516</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>0.0003786869466599896</v>
+      </c>
+      <c r="C107">
+        <v>0.0009677892670190147</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.01135458522204891</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
+        <v>0.0005069922855653886</v>
+      </c>
+      <c r="C108">
+        <v>0.000984196000096027</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.009390854457279607</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <v>0.0005361554938527746</v>
+      </c>
+      <c r="C109">
+        <v>0.001806302406103022</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.009116447157872853</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
+        <v>0.000644692515939127</v>
+      </c>
+      <c r="C110">
+        <v>0.00243317655081654</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.008751228108903275</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+        <v>0.001365012757715611</v>
+      </c>
+      <c r="C111">
+        <v>0.001820284639948433</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.01112479906200892</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
+        <v>0.001415487071191102</v>
+      </c>
+      <c r="C112">
+        <v>0.001996655244319356</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.01179966106190733</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+        <v>0.001289690267801014</v>
+      </c>
+      <c r="C113">
+        <v>0.003194132506424197</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.01308673007398697</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+        <v>0.001382577151862741</v>
+      </c>
+      <c r="C114">
+        <v>0.002950012502819455</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.01218785919169485</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+        <v>0.0007068281231763507</v>
+      </c>
+      <c r="C115">
+        <v>0.00254139552741961</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.01353758881733635</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+        <v>0.0007297489103299526</v>
+      </c>
+      <c r="C116">
+        <v>0.002977306110183875</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.01495066094412567</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+        <v>0.0006758273320244257</v>
+      </c>
+      <c r="C117">
+        <v>0.004024571305521363</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.01456027374938151</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+        <v>0.000517922193456144</v>
+      </c>
+      <c r="C118">
+        <v>0.003476654049615391</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.0151433468500799</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+        <v>0.0004556336716934339</v>
+      </c>
+      <c r="C119">
+        <v>0.003280738565348607</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.01411485833561765</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <v>0.0004453519930978089</v>
+      </c>
+      <c r="C120">
+        <v>0.002951749266920878</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.01356538492935799</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
+        <v>0.000522487400662186</v>
+      </c>
+      <c r="C121">
+        <v>0.002361784142671297</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.01293608692407999</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+        <v>0.0003470522627342376</v>
+      </c>
+      <c r="C122">
+        <v>0.001886651020838848</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.01254231309184961</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
+        <v>0.0002715722725099567</v>
+      </c>
+      <c r="C123">
+        <v>0.001403638099360727</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.0104861189942862</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+        <v>0.0001086832844459096</v>
+      </c>
+      <c r="C124">
+        <v>0.001632556382809014</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.008931400754278451</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
+        <v>0.0001022823506353632</v>
+      </c>
+      <c r="C125">
+        <v>0.001408571634148537</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.008462473310578256</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
+        <v>9.921775038890246E-05</v>
+      </c>
+      <c r="C126">
+        <v>0.001150406647170144</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.008131091578061911</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
+        <v>0.0001008011839385148</v>
+      </c>
+      <c r="C127">
+        <v>0.001258038418003871</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.006521651972490883</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+        <v>9.751359211573885E-05</v>
+      </c>
+      <c r="C128">
+        <v>0.001235385949143186</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.007434961960555819</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
+        <v>0.0001003343056380501</v>
+      </c>
+      <c r="C129">
+        <v>0.0009299442234134148</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.008580379872938693</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+        <v>0.000213497659093953</v>
+      </c>
+      <c r="C130">
+        <v>0.00069139460286749</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.009676285775662707</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
+        <v>0.0002597566010820174</v>
+      </c>
+      <c r="C131">
+        <v>0.001033606158676648</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.01159020539962419</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
+        <v>0.0003281460573214545</v>
+      </c>
+      <c r="C132">
+        <v>0.001143150685473771</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.01002690352247049</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
+        <v>0.00037228163115266</v>
+      </c>
+      <c r="C133">
+        <v>0.00115404551086673</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.01484926986832202</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
+        <v>0.0009067413828693915</v>
+      </c>
+      <c r="C134">
+        <v>0.001232910102499929</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.01467905894986532</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
+        <v>0.001730098930576851</v>
+      </c>
+      <c r="C135">
+        <v>0.000845912295805995</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.01582469410474152</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
+        <v>0.001556630842827644</v>
+      </c>
+      <c r="C136">
+        <v>0.002132501142845911</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.01666099584678316</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
+        <v>0.001446107335660862</v>
+      </c>
+      <c r="C137">
+        <v>0.005051754022489696</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.01752455926335528</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
+        <v>0.001356677981098287</v>
+      </c>
+      <c r="C138">
+        <v>0.003450281246493603</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.0187109534506773</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
+        <v>0.0006737562599443692</v>
+      </c>
+      <c r="C139">
+        <v>0.002328391576097211</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.01485696627019739</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
+        <v>0.0005307550954221085</v>
+      </c>
+      <c r="C140">
+        <v>0.002297057942077352</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.0142996933884143</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
+        <v>0.000467892751250254</v>
+      </c>
+      <c r="C141">
+        <v>0.00228578259629586</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.01404710358048078</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
+        <v>0.0005494357490745116</v>
+      </c>
+      <c r="C142">
+        <v>0.002947432005139028</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.01623373994650823</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
+        <v>0.0005308180273031482</v>
+      </c>
+      <c r="C143">
+        <v>0.003551417661638467</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.01626993386707865</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
+        <v>0.0005265440736019755</v>
+      </c>
+      <c r="C144">
+        <v>0.003566186617891098</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.01521855706171249</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
+        <v>0.0006284157458251727</v>
+      </c>
+      <c r="C145">
+        <v>0.003108045097769185</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.0142916289367645</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="1">
-        <v>145</v>
-      </c>
-      <c r="B147">
-        <v>0.0140254556774484</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="1">
-        <v>146</v>
-      </c>
-      <c r="B148">
-        <v>0.01230770007085003</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="1">
-        <v>147</v>
-      </c>
-      <c r="B149">
-        <v>0.007569879425939563</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="1">
-        <v>148</v>
-      </c>
-      <c r="B150">
-        <v>0.007815853654531857</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="1">
-        <v>149</v>
-      </c>
-      <c r="B151">
-        <v>0.006643758012683465</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="1">
-        <v>150</v>
-      </c>
-      <c r="B152">
-        <v>0.005736910660181449</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="1">
-        <v>151</v>
-      </c>
-      <c r="B153">
-        <v>0.005957760555503455</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="1">
-        <v>152</v>
-      </c>
-      <c r="B154">
-        <v>0.006706015037807767</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="1">
-        <v>153</v>
-      </c>
-      <c r="B155">
-        <v>0.007933259166468698</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="1">
-        <v>154</v>
-      </c>
-      <c r="B156">
-        <v>0.01127796206298703</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="1">
-        <v>155</v>
-      </c>
-      <c r="B157">
-        <v>0.01301394228162578</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
-      <c r="B158">
-        <v>0.01321699017925582</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="1">
-        <v>157</v>
-      </c>
-      <c r="B159">
-        <v>0.01271181300117141</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="1">
-        <v>158</v>
-      </c>
-      <c r="B160">
-        <v>0.01345070632573964</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="1">
-        <v>159</v>
-      </c>
-      <c r="B161">
-        <v>0.01380943720440553</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="1">
-        <v>160</v>
-      </c>
-      <c r="B162">
-        <v>0.0150947228598477</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="1">
-        <v>161</v>
-      </c>
-      <c r="B163">
-        <v>0.01531127574693958</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="1">
-        <v>162</v>
-      </c>
-      <c r="B164">
-        <v>0.01395906975146799</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="1">
-        <v>163</v>
-      </c>
-      <c r="B165">
-        <v>0.0126719305109193</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="1">
-        <v>164</v>
-      </c>
-      <c r="B166">
-        <v>0.0110286504988486</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="1">
-        <v>165</v>
-      </c>
-      <c r="B167">
-        <v>0.0139396046795508</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="1">
-        <v>166</v>
-      </c>
-      <c r="B168">
-        <v>0.01285415575658222</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
-      <c r="B169">
-        <v>0.01074920334730844</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="1">
-        <v>168</v>
-      </c>
-      <c r="B170">
-        <v>0.01047101227075564</v>
+        <v>0.0004956013078718513</v>
+      </c>
+      <c r="C146">
+        <v>0.002683945416612765</v>
       </c>
     </row>
   </sheetData>
